--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/land/rpepuace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/land/RPEpUACE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F92AE-FC21-0D4A-936B-362E8F86FCEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBCC936E-5AD6-9B43-A7FB-BA8622A8BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -41,12 +41,6 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>http://www.epa.gov/climatechange/Downloads/ghgemissions/US-GHG-Inventory-2015-Main-Text.pdf</t>
-  </si>
-  <si>
-    <t>Page 6-4, Table 6-3</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -65,12 +59,6 @@
     <t>and to the effects of policy levers in the model.</t>
   </si>
   <si>
-    <t>U.S. EPA</t>
-  </si>
-  <si>
-    <t>Excerpt from Table 6-3:</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -116,10 +104,25 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Inventory of U.S. Greenhouse Gas Emissions and Sinks: 1990-2013</t>
-  </si>
-  <si>
     <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>Excerpt from Table 6-2:</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
+    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
+  </si>
+  <si>
+    <t>Table 6-3</t>
+  </si>
+  <si>
+    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -530,8 +535,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
       <c r="C1" s="5">
-        <v>44307</v>
+        <v>44515</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -539,57 +547,57 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
-        <v>2015</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -615,139 +625,139 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="C3">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D3">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E3">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="F3">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-862631</v>
+        <v>-791695</v>
       </c>
       <c r="C4">
-        <v>-862025</v>
+        <v>-855998</v>
       </c>
       <c r="D4">
-        <v>-872103</v>
+        <v>-792046</v>
       </c>
       <c r="E4">
-        <v>-869580</v>
+        <v>-824885</v>
       </c>
       <c r="F4">
-        <v>-871026</v>
+        <v>-812695</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>234</v>
+        <v>663</v>
       </c>
       <c r="C5">
-        <v>190</v>
+        <v>308</v>
       </c>
       <c r="D5">
-        <v>584</v>
+        <v>614</v>
       </c>
       <c r="E5">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="F5">
-        <v>233</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <f>B5/B4</f>
-        <v>-2.7126314727850032E-4</v>
+        <v>-8.3744371254081433E-4</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-2.2041124097328964E-4</v>
+        <v>-3.5981392479888971E-4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-6.6964567258683894E-4</v>
+        <v>-7.7520750057446164E-4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>-7.2103774235837996E-4</v>
+        <v>-6.6918418931123734E-4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-2.6750062569888842E-4</v>
+        <v>-6.7922160220008736E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <f>B6/B4</f>
-        <v>-2.5503372821055586E-5</v>
+        <v>-4.7998282166743506E-5</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-2.3201183260346277E-5</v>
+        <v>-2.1028086514220829E-5</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>-4.8159449055902798E-5</v>
+        <v>-4.5451905571141073E-5</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>-5.1749120264955494E-5</v>
+        <v>-3.8793286336883321E-5</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>-2.6405641163409588E-5</v>
+        <v>-3.9375165344932599E-5</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +773,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,12 +783,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -786,7 +796,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -794,7 +804,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -802,7 +812,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -810,7 +820,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -818,7 +828,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -826,7 +836,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -834,7 +844,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -842,7 +852,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -850,25 +860,25 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <f>-AVERAGE(Data!B8:F8)</f>
-        <v>4.2997168577917945E-4</v>
+        <v>6.6417418588509813E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.5003753313133949E-5</v>
+        <v>3.8529345186784264E-5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CO/land/RPEpUACE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\RPEpUACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBCC936E-5AD6-9B43-A7FB-BA8622A8BFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C39C8-7140-4E9A-800C-6D86145E4794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -71,58 +72,151 @@
     <t>Unit: kt</t>
   </si>
   <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>PM25</t>
+  </si>
+  <si>
+    <t>SOx</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>F gases</t>
+  </si>
+  <si>
+    <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
+    <t>Table 6-3</t>
+  </si>
+  <si>
+    <t>Table 6-3:  Emissions and Removals from Land Use, Land-Use Change, and Forestry by Gas (kt)</t>
+  </si>
+  <si>
+    <t>Gas/Land-Use Category</t>
+  </si>
+  <si>
+    <t>Carbon Stock Change (CO2)a</t>
+  </si>
+  <si>
+    <t>Forest Land Remaining Forest Land</t>
+  </si>
+  <si>
+    <t>Land Converted to Forest Land</t>
+  </si>
+  <si>
+    <t>Cropland Remaining Cropland</t>
+  </si>
+  <si>
+    <t>Land Converted to Cropland</t>
+  </si>
+  <si>
+    <t>Grassland Remaining Grassland</t>
+  </si>
+  <si>
+    <t>Land Converted to Grassland</t>
+  </si>
+  <si>
+    <t>Wetlands Remaining Wetlands</t>
+  </si>
+  <si>
+    <t>Land Converted to Wetlands</t>
+  </si>
+  <si>
+    <t>Settlements Remaining Settlements</t>
+  </si>
+  <si>
+    <t>Land Converted to Settlements</t>
+  </si>
+  <si>
+    <t>Forest Land Remaining Forest Land: Forest Firesb</t>
+  </si>
+  <si>
+    <t>Forest Land Remaining Forest Land: Drained Organic Soilsd</t>
+  </si>
+  <si>
+    <t>Grassland Remaining Grassland: Grassland Firesc</t>
+  </si>
+  <si>
+    <t>Wetlands Remaining Wetlands: Flooded Land Remaining Flooded Land</t>
+  </si>
+  <si>
+    <t>Wetlands Remaining Wetlands: Coastal Wetlands Remaining Coastal Wetlands</t>
+  </si>
+  <si>
+    <t>Wetlands Remaining Wetlands: Peatlands Remaining Peatlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ </t>
+  </si>
+  <si>
+    <t>Land Converted to Wetlands: Land Converted to Flooded Lands</t>
+  </si>
+  <si>
+    <t>Land Converted to Wetlands: Land Converted to Coastal Wetlands</t>
+  </si>
+  <si>
+    <t>Forest Land Remaining Forest Land: Forest Soilsf</t>
+  </si>
+  <si>
+    <t>Settlements Remaining Settlements: Settlement Soilse</t>
+  </si>
+  <si>
+    <t>+ Absolute value does not exceed 0.5 kt.</t>
+  </si>
+  <si>
+    <t>a LULUCF Carbon Stock Change is the net C stock change from the following categories: Forest Land Remaining Forest Land, Land Converted to Forest Land, Cropland Remaining Cropland, Land Converted to Cropland, Grassland Remaining Grassland, Land Converted to Grassland, Wetlands Remaining Wetlands, Land Converted to Wetlands, Settlements Remaining Settlements, and Land Converted to Settlements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b Estimates include CH4 and N2O emissions from fires on both Forest Land Remaining Forest Land and Land Converted to Forest Land. </t>
+  </si>
+  <si>
+    <t>c Estimates include CH4 and N2O emissions from drained organic soils on both Forest Land Remaining Forest Land and Land Converted to Forest Land.</t>
+  </si>
+  <si>
+    <t>d Estimates include CH4 and N2O emissions from fires on both Grassland Remaining Grassland and Land Converted to Grassland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e Estimates include N2O emissions from N fertilizer additions on both Forest Land Remaining Forest Land and Land Converted to Forest Land. </t>
+  </si>
+  <si>
+    <t>f Estimates include N2O emissions from N fertilizer additions on both Settlements Remaining Settlements and Land Converted to Settlements.</t>
+  </si>
+  <si>
+    <t>Notes: Totals may not sum due to independent rounding. Parentheses indicate net sequestration.</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/ghgemissions/inventory-us-greenhouse-gas-emissions-and-sinks-1990-2020</t>
+  </si>
+  <si>
+    <t>Table 6-3:</t>
+  </si>
+  <si>
+    <t>Inventory of US Greenhouse Gas Emissions Emissions and Sinks: 1990-2020</t>
+  </si>
+  <si>
     <t>CH4/CO2 Ratio</t>
   </si>
   <si>
     <t>N2O/CO2 Ratio</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>PM10</t>
-  </si>
-  <si>
-    <t>PM25</t>
-  </si>
-  <si>
-    <t>SOx</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>F gases</t>
-  </si>
-  <si>
-    <t>Rebound Emis Factor (dimensionless)</t>
-  </si>
-  <si>
-    <t>Excerpt from Table 6-2:</t>
-  </si>
-  <si>
-    <t>US EPA</t>
-  </si>
-  <si>
-    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
-  </si>
-  <si>
-    <t>Table 6-3</t>
-  </si>
-  <si>
-    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -183,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -523,241 +617,780 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5">
-        <v>44515</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>2015</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
         <v>2016</v>
       </c>
-      <c r="D3">
+      <c r="C4">
         <v>2017</v>
       </c>
-      <c r="E3">
+      <c r="D4">
         <v>2018</v>
       </c>
-      <c r="F3">
+      <c r="E4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-862045</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-826667</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-809026</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-760820</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-812176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-725571</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-688301</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-677101</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-634824</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-668057</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-99454</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-99523</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-99518</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-99520</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-99521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-22731</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-22293</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-16597</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-14544</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-23335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
+        <v>54107</v>
+      </c>
+      <c r="C9" s="5">
+        <v>54273</v>
+      </c>
+      <c r="D9" s="5">
+        <v>53975</v>
+      </c>
+      <c r="E9" s="5">
+        <v>53935</v>
+      </c>
+      <c r="F9" s="5">
+        <v>54380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7958</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9308</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9670</v>
+      </c>
+      <c r="E10" s="5">
+        <v>12425</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-22553</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-22693</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-22397</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-21485</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-24101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-8046</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-7954</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-7994</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-8034</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-8084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>254</v>
+      </c>
+      <c r="C13">
+        <v>258</v>
+      </c>
+      <c r="D13">
+        <v>265</v>
+      </c>
+      <c r="E13">
+        <v>271</v>
+      </c>
+      <c r="F13">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-123794</v>
+      </c>
+      <c r="C14" s="5">
+        <v>-127679</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-127299</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-126977</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-126128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5">
+        <v>77784</v>
+      </c>
+      <c r="C15" s="5">
+        <v>77938</v>
+      </c>
+      <c r="D15" s="5">
+        <v>77970</v>
+      </c>
+      <c r="E15" s="5">
+        <v>77932</v>
+      </c>
+      <c r="F15" s="5">
+        <v>77895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1131</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1359</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1226</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1022</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>154</v>
+      </c>
+      <c r="C17">
+        <v>381</v>
+      </c>
+      <c r="D17">
+        <v>249</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>796.7</v>
+      </c>
+      <c r="C20">
+        <v>796.8</v>
+      </c>
+      <c r="D20">
+        <v>796.9</v>
+      </c>
+      <c r="E20">
+        <v>796.9</v>
+      </c>
+      <c r="F20">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>153</v>
+      </c>
+      <c r="C21">
+        <v>153</v>
+      </c>
+      <c r="D21">
+        <v>153</v>
+      </c>
+      <c r="E21">
+        <v>153</v>
+      </c>
+      <c r="F21">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>-791695</v>
-      </c>
-      <c r="C4">
-        <v>-855998</v>
-      </c>
-      <c r="D4">
-        <v>-792046</v>
-      </c>
-      <c r="E4">
-        <v>-824885</v>
-      </c>
-      <c r="F4">
-        <v>-812695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>663</v>
-      </c>
-      <c r="C5">
-        <v>308</v>
-      </c>
-      <c r="D5">
-        <v>614</v>
-      </c>
-      <c r="E5">
-        <v>552</v>
-      </c>
-      <c r="F5">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>36</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <f>B5/B4</f>
-        <v>-8.3744371254081433E-4</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-3.5981392479888971E-4</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B16/B5</f>
+        <v>-1.3119964735019633E-3</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" ref="C43:F43" si="0">C16/C5</f>
+        <v>-1.6439509500197783E-3</v>
+      </c>
+      <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>-7.7520750057446164E-4</v>
-      </c>
-      <c r="E8" s="3">
+        <v>-1.5154024716140149E-3</v>
+      </c>
+      <c r="E43" s="3">
         <f t="shared" si="0"/>
-        <v>-6.6918418931123734E-4</v>
-      </c>
-      <c r="F8" s="3">
+        <v>-1.3432875055860781E-3</v>
+      </c>
+      <c r="F43" s="3">
         <f t="shared" si="0"/>
-        <v>-6.7922160220008736E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
-        <f>B6/B4</f>
-        <v>-4.7998282166743506E-5</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" ref="C9:F9" si="1">C6/C4</f>
-        <v>-2.1028086514220829E-5</v>
-      </c>
-      <c r="D9" s="3">
+        <v>-1.8739780540178485E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="3">
+        <f>B25/B5</f>
+        <v>-2.7840773973516463E-5</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" ref="C44:F44" si="1">C25/C5</f>
+        <v>-4.7177400331693413E-5</v>
+      </c>
+      <c r="D44" s="3">
         <f t="shared" si="1"/>
-        <v>-4.5451905571141073E-5</v>
-      </c>
-      <c r="E9" s="3">
+        <v>-3.8317680766749151E-5</v>
+      </c>
+      <c r="E44" s="3">
         <f t="shared" si="1"/>
-        <v>-3.8793286336883321E-5</v>
-      </c>
-      <c r="F9" s="3">
+        <v>-2.1029941379038406E-5</v>
+      </c>
+      <c r="F44" s="3">
         <f t="shared" si="1"/>
-        <v>-3.9375165344932599E-5</v>
+        <v>-6.2794271192450897E-5</v>
       </c>
     </row>
   </sheetData>
@@ -773,20 +1406,20 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -794,91 +1427,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <f>-AVERAGE(Data!B8:F8)</f>
-        <v>6.6417418588509813E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <f>-AVERAGE(Data!B43:F43)</f>
+        <v>1.5377230909479366E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <f>-AVERAGE(Data!B9:F9)</f>
-        <v>3.8529345186784264E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <f>-AVERAGE(Data!B44:F44)</f>
+        <v>3.9432013528689668E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
